--- a/leetcode/cheatsheet.xlsx
+++ b/leetcode/cheatsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\AI1\git-work\Python_DSA\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE8FFC9-5371-4747-8DFB-01E85B42D23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9CB5FC-33EA-450B-9FEC-2F1561822335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Two Sum</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Trick</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>maintain a set by removing the repeative values from the set</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
   </si>
 </sst>
 </file>
@@ -354,16 +363,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -382,6 +391,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode/cheatsheet.xlsx
+++ b/leetcode/cheatsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\AI1\git-work\Python_DSA\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9CB5FC-33EA-450B-9FEC-2F1561822335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D480A37-5BAE-42D2-9E38-0897522A970B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Two Sum</t>
   </si>
   <si>
-    <t>x = Y = target</t>
-  </si>
-  <si>
     <t>Problem</t>
   </si>
   <si>
@@ -46,6 +43,30 @@
   </si>
   <si>
     <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>left and right pointer,  increase the pointer always with highest</t>
+  </si>
+  <si>
+    <t>Three sum</t>
+  </si>
+  <si>
+    <t>left and right pointer,  sum of three values equals to target, increase left pointer if value is less then target and increase right value greater than target , check repetitive number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate Image </t>
+  </si>
+  <si>
+    <t>left , right, top, bottom four pointer. Move pointer in clockwise direction with out using new matrix.  Save left top  in  temp.</t>
+  </si>
+  <si>
+    <t>X + Y = target</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>sort all values of the list thn create a nested map with the same key and append the values in crossponding the same the key</t>
   </si>
 </sst>
 </file>
@@ -363,24 +384,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="126.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -388,20 +409,47 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/cheatsheet.xlsx
+++ b/leetcode/cheatsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\AI1\git-work\Python_DSA\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D480A37-5BAE-42D2-9E38-0897522A970B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BB1449-310F-4DC6-8ABD-BBC8EB6CCFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Two Sum</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>sort all values of the list thn create a nested map with the same key and append the values in crossponding the same the key</t>
+  </si>
+  <si>
+    <t>matrix[:] = list(zip(*matrix[::-1]))</t>
+  </si>
+  <si>
+    <t>code tricks</t>
   </si>
 </sst>
 </file>
@@ -384,27 +390,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="126.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="146.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -412,7 +422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -420,7 +430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -428,7 +438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -436,7 +446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -444,12 +454,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/cheatsheet.xlsx
+++ b/leetcode/cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\AI1\git-work\Python_DSA\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BB1449-310F-4DC6-8ABD-BBC8EB6CCFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDBB15F-D6A6-4177-A6B3-8466CBFE5C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="204" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Two Sum</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>code tricks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid parenthesis </t>
+  </si>
+  <si>
+    <t>create a hashmap {")":"(", "]":"[", "}":"{"};  create a list and only store opening bracket in the hashmap</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,6 +471,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode/cheatsheet.xlsx
+++ b/leetcode/cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\AI1\git-work\Python_DSA\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDBB15F-D6A6-4177-A6B3-8466CBFE5C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61756378-D3C1-4BD1-9818-5687190215CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="204" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Two Sum</t>
   </si>
@@ -79,16 +79,48 @@
   </si>
   <si>
     <t>create a hashmap {")":"(", "]":"[", "}":"{"};  create a list and only store opening bracket in the hashmap</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>apply  while list1 and list2, and create dummy linked list, use next as per requirement for both list and dummy linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quo, reminder = divmod(v1 + v2 + carry, 10) </t>
+  </si>
+  <si>
+    <t>create dummy list and apply while on the both list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a dummy List node and loop both list with carry variable, maintain three variable carry, val, dummy node
+l1.next if l1 else None </t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Two pointer, one pointer for prev and one for next (prev pointer None)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,8 +146,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,17 +438,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="146.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -472,14 +514,48 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/leetcode/cheatsheet.xlsx
+++ b/leetcode/cheatsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\AI1\git-work\Python_DSA\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61756378-D3C1-4BD1-9818-5687190215CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADB084E-5D6E-44C7-87F4-C291947A6A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Two Sum</t>
   </si>
@@ -96,14 +96,33 @@
     <t>create dummy list and apply while on the both list</t>
   </si>
   <si>
-    <t xml:space="preserve">create a dummy List node and loop both list with carry variable, maintain three variable carry, val, dummy node
-l1.next if l1 else None </t>
-  </si>
-  <si>
     <t>Reverse Linked List</t>
   </si>
   <si>
-    <t>Two pointer, one pointer for prev and one for next (prev pointer None)</t>
+    <t xml:space="preserve">Two pointer, one pointer for prev and one for next (prev pointer None)
+Hold curr.next variable in temporary variable
+assign prev(null value) to current next variable
+assign cur value to prev
+assign tmp value to curr
+</t>
+  </si>
+  <si>
+    <t>create a dummy List node and loop both list with carry variable, maintain three variable carry, val, dummy node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l1.next if l1 else None </t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Nested sorted list, so loop twice when with while and 2nd with for loop 
+Fetch values in two variables one for I th variable and 2nd with I + 1 variable with condition 
+handle conditon where one list loop is completed and other list having more number
+Just append left node header directly with to non None list</t>
+  </si>
+  <si>
+    <t>Subpart of the merge two sorted list</t>
   </si>
 </sst>
 </file>
@@ -149,15 +168,17 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,120 +459,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="146.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.44140625" customWidth="1"/>
     <col min="3" max="3" width="93.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/cheatsheet.xlsx
+++ b/leetcode/cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\AI1\git-work\Python_DSA\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADB084E-5D6E-44C7-87F4-C291947A6A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6690DC5B-05A8-440F-9739-A22A2AAE765F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Two Sum</t>
   </si>
@@ -124,12 +124,92 @@
   <si>
     <t>Subpart of the merge two sorted list</t>
   </si>
+  <si>
+    <t xml:space="preserve">            if not tree:
+                return True
+            if tree.val &lt;= low or tree.val &gt;= high:
+                return False
+            print(tree.val)
+            return validBST(tree.left, low, tree.val) and validBST(tree.right,  tree.val, high)</t>
+  </si>
+  <si>
+    <t>for checking a tree is binary tree or not 
+create a method inside other main method  and recursice call over all the elements one by one 
+and check right side condition
+(tree, low= -math.inf, high=math.inf)
+**** left and right infinity range 
+[2,1,3]
+-inf &gt;  1(current node)    &gt;   2(root node)
+3(current node)  &gt;  2(root node)   &gt; inf</t>
+  </si>
+  <si>
+    <t>float("-inf") : left infinity
+float("inf") : right infinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Binary Search Tree
+:
+Recursive Traversal with Valid Range
+</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree
+:
+Iterative Traversal with Valid Range</t>
+  </si>
+  <si>
+    <t>Instead of recursion we can use 
+        stack = [(root, -math.inf, math.inf)]
+pop all the elements one by one from the stack on while looping the stack 
+change the values of min and max limit according limit condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if val &lt;= lower or val &gt;= upper:
+                return False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree Level Order Traversal </t>
+  </si>
+  <si>
+    <t>maintain dequeue and two loop one with while and other with for
+insert values and node from inner loop 
+pop values from the queue froml outer loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        q = deque()        
+        q.append(root)
+        while q:
+            qLen = len(q)
+            print(qLen)
+            level = []
+            for i in range(qLen):
+                node = q.popleft()
+                if node:
+                    level.append(node.data)
+                    q.append(node.left)
+                    q.append(node.right)
+        if level:
+            res.append(level)</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute max path with split and with out split
+Return max path without split </t>
+  </si>
+  <si>
+    <t>clarity is pending</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/explore/interview/card/amazon/78/trees-and-graphs/2981/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +220,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,10 +250,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -179,8 +268,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,20 +552,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.44140625" customWidth="1"/>
-    <col min="3" max="3" width="93.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="93.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -483,52 +578,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -539,7 +629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -548,21 +638,19 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -573,8 +661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
@@ -582,16 +669,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -602,8 +688,61 @@
         <v>28</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D20" r:id="rId1" xr:uid="{EFEFF8C3-60AB-4101-845A-317E07AC3D74}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/leetcode/cheatsheet.xlsx
+++ b/leetcode/cheatsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\AI1\git-work\Python_DSA\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6690DC5B-05A8-440F-9739-A22A2AAE765F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330A4A6-680B-42EC-A933-4CBFD2124BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Two Sum</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Longest Substring Without Repeating Characters</t>
-  </si>
-  <si>
-    <t>maintain a set by removing the repeative values from the set</t>
   </si>
   <si>
     <t>Container With Most Water</t>
@@ -204,12 +201,70 @@
   <si>
     <t>https://leetcode.com/explore/interview/card/amazon/78/trees-and-graphs/2981/</t>
   </si>
+  <si>
+    <t>Basic idea sliding window(maintian set and remove values from the left) 
+maintain left and right pointer 
+right  pointer : maintain a set by removing the repeative values from the set(for loop)
+left  pointer : keep removing from the left in loop until until in reach duplicate word(while loop)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Time complexity  : o(n)
+spece complexity : o(n)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>res = max(res, r - l + 1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if diraction % 2 == 0:
+                result.append(temp[::-1])
+            else:
+                result.append(temp[::1])
+            diraction += 1 </t>
+  </si>
+  <si>
+    <t>apply bredth first search approach 
+Instead of maintaining queue, can be tried with list
+Similar to queue append and pop values from list from 2nd loop and 1st while loop
+maintain a direction variables as in right side</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>create a dictionary like in right side 
+maintain list to final result
+apply for loop and call recursion as backtrack
+use recursion and alllow to append only when length of current string and digits are equals</t>
+  </si>
+  <si>
+    <t>if len(curStr) == len(digits):
+        res.append(curStr)
+        return
+    for c in digitsToChar[digits[i]]:
+        beackTrack(i+1, curStr + c)</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +286,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -271,6 +332,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -552,16 +614,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="116.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="93.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="2"/>
@@ -575,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -583,58 +645,61 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -644,98 +709,128 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>43</v>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/cheatsheet.xlsx
+++ b/leetcode/cheatsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\AI1\git-work\Python_DSA\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330A4A6-680B-42EC-A933-4CBFD2124BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00960EAD-6D9A-4771-A45B-9D253B78A5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Two Sum</t>
   </si>
@@ -259,12 +259,47 @@
   <si>
     <t>Generate Parentheses</t>
   </si>
+  <si>
+    <t>only add open paranthesis if open  &lt;  n
+only add a closing paranthesis if closed  &lt;  open
+valid IIF open == closed == n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Kadane's Algorithm for Maximum Sum Subarray</t>
+  </si>
+  <si>
+    <t>simple algo by kadane algorithm implementtation 
+best and oveall beat two variables
+overal best will be updated if value is greater thn 0
+otherwise start vlaue from current variabales</t>
+  </si>
+  <si>
+    <t>csum = nums[0]
+osum = nums[0]
+for i in range(1, r):
+    if csum &gt;= 0 :
+        csum += nums[i]
+    else:
+        csum = nums[i]
+    if csum &gt; osum :
+        osum = csum</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring Dynamic Programming</t>
+  </si>
+  <si>
+    <t>(by summit)</t>
+  </si>
+  <si>
+    <t>range(start, stop, step)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,12 +321,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -332,7 +361,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -614,15 +645,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="116.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="93.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -828,9 +859,36 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
